--- a/cards/authorization_response_f039/authorization_response_f039.xlsx
+++ b/cards/authorization_response_f039/authorization_response_f039.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,1175 +440,2619 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>_airbyte_ab_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_emitted_at</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>are_code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>are_labe</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_additional_properties</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>source_file_path</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>8aa33af8-fa1e-46b0-bc05-eb1d50bc3964</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Approved or completed successfully.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5f7bfbc3-d03d-4183-b95a-c5b7178790ca</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Refer to card Issuer.</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2aef3699-5204-4d10-968f-d4ea2caf539a</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Refer to card Issuer - special Condition.</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>6e270c05-5011-45a9-81f8-fb2d6332a3fe</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Invalid Merchant.</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>07502859-845c-4c03-bd06-d65e9bf52943</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Do Not Honor</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>9c679880-1b50-43cb-ab5e-f477ad74788b</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Unable to process request</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a7628295-25fb-4934-ac1e-d145fbfefe4e</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">Error </t>
         </is>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2d8d871e-a834-47bb-8540-fae6e98a1e3f</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Pick Up Card Special Condition</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1c4197b3-4e25-4161-af04-a51ddc302027</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Timed out</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>11</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2fb45405-9863-4479-8b94-31c8137508ed</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Approval VIP</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>12</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0b802972-1d58-4b00-8791-d845f2878e2e</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Invalid Transaction</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>13</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>637eb6db-c9f3-4e87-8240-f7f928dca2fb</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Invalid Amount</t>
         </is>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>77fab80c-19b2-4993-a0d5-47e737ba5ac5</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Invalid Card Number ( no such number )</t>
         </is>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>15</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>c0b36b35-41c5-44f8-9423-6fc8b37e5f8b</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>No such issuer</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>17</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>753e2b83-581d-4a96-87f9-439a8c8071b7</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Customer Cancellation</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>19</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2d71efc8-d37c-4b25-b034-cb94d22799ca</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>Re Enter Transaction</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>20</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>df2eadd5-c34b-4f6b-a440-10e8760375cd</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Wrong Response ( Server Problem )</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>21</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>433e9dce-a0c8-44a8-973d-2f30336c7693</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>No Action Taken</t>
         </is>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>24</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>800164f7-a139-4bcf-be72-a1893184d1c1</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Update File Not Supported</t>
         </is>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>25</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>f4d9198d-8c69-422b-a21a-2701a4265b97</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Unable to locate a record on file</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>26</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>fc5a8dd0-4e87-4a13-b20f-d9c9842dee28</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>Duplicate Record Found</t>
         </is>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>27</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>74445a9f-b33d-468e-a5a2-21956d330eaa</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>File Update Edit Error</t>
         </is>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>28</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>c79eda05-bb22-41a4-adec-6d32b4e5c0c8</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>File Update, File Locked</t>
         </is>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>29</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>715f72a1-b6b5-4bdd-9b1d-139759cae790</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>File Update, Update Not Successful</t>
         </is>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>30</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>18e0f04f-49eb-4146-ba0c-f9728cc8e192</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>Format Error</t>
         </is>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>31</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>d658a744-d114-484a-9300-d25758e98b32</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Bank / Host or Issuer Not Supported Or Unknown</t>
         </is>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>32</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>e25e57c7-e07b-492e-bc3d-1569ae802f75</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>Completed Partially</t>
         </is>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>33</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28394e58-8681-4b91-a9eb-1b3a88b3df6d</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>Expired Card</t>
         </is>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>34</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>c4b9ca9a-9259-48b7-88c6-38b2288875bd</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Suspected Fraud</t>
         </is>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>35</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>9a09f710-4e3c-48b5-8f33-6f6408bbf9be</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>Card Acceptor Has to contact Acquirer</t>
         </is>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>36</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ee4753cd-bd48-4390-b5fa-2301a54ffcd2</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>Restricted Card</t>
         </is>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>37</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>d6078636-241d-421f-8458-57985a4c1d9d</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>Card Acceptor Call Acquirer Security</t>
         </is>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>38</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ad842b4f-05d9-4aa6-a7f8-3e9510a86e42</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>Retry PIN Error Exceeded</t>
         </is>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>39</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0b7b8b74-74e1-41da-88df-dd16f7b06c49</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>Invalid Transaction</t>
         </is>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>40</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>13ef124c-b094-4b46-8cfb-290c25567070</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>Requested Function Not Supported</t>
         </is>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>41</v>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>f6534874-97db-4f7a-bfd1-50162791abe4</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>Lost Card</t>
         </is>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>42</v>
-      </c>
-      <c r="B38" t="inlineStr">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1afd5609-8e1b-43e6-a236-a2df2411709a</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>No Universal Account</t>
         </is>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>43</v>
-      </c>
-      <c r="B39" t="inlineStr">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>f4ebd8c9-b2b4-46df-a9a4-4a3dfa82c118</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>Stolen Card, Pick Up</t>
         </is>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>44</v>
-      </c>
-      <c r="B40" t="inlineStr">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>128487ba-4180-42f1-b675-6711d02b5aec</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>No Investment Account</t>
         </is>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>46</v>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1f3547cc-6231-4977-b58f-e649a22d20a6</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>Closed Account</t>
         </is>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>50</v>
-      </c>
-      <c r="B42" t="inlineStr">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4ef2d03b-ad71-4a51-8fbf-be08e2be869e</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MCC used is not compliant</t>
         </is>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>51</v>
-      </c>
-      <c r="B43" t="inlineStr">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>b381fbbd-c303-47bd-a509-a424c7578c37</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>No Sufficient funds</t>
         </is>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>52</v>
-      </c>
-      <c r="B44" t="inlineStr">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>a8be6c7b-1a0e-451d-a371-27dc3e7cb49b</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Lost/Blocked Card</t>
         </is>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>53</v>
-      </c>
-      <c r="B45" t="inlineStr">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>022a05ba-3a9d-46ac-8a78-f32b7de177e3</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>No saving Account</t>
         </is>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>54</v>
-      </c>
-      <c r="B46" t="inlineStr">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>a1ec7390-da21-4b26-9082-53a44ca33263</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>Expired Card</t>
         </is>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>55</v>
-      </c>
-      <c r="B47" t="inlineStr">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>dc22d19d-8eaa-4edd-bc70-a605f5364fc6</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>Incorrect PIN</t>
         </is>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>56</v>
-      </c>
-      <c r="B48" t="inlineStr">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>c2d0ef18-3394-458a-9745-d382114785a7</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>No Card Record</t>
         </is>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>57</v>
-      </c>
-      <c r="B49" t="inlineStr">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48eb491d-5b1b-41ed-9eae-2dc425364f51</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>Transaction Not Permitted to Cardholder</t>
         </is>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>58</v>
-      </c>
-      <c r="B50" t="inlineStr">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>09e3219a-bb3b-44f2-8cf4-b07e52dacab3</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>Transaction Not Permitted to Terminal</t>
         </is>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>59</v>
-      </c>
-      <c r="B51" t="inlineStr">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>eed73f02-b067-4cd6-b3ff-94af539ec128</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>Suspected Fraud</t>
         </is>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>60</v>
-      </c>
-      <c r="B52" t="inlineStr">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>cdc35f26-9ee1-4db5-839a-8ff666dc8d63</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>Card Acceptor Contact Acquirer</t>
         </is>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>61</v>
-      </c>
-      <c r="B53" t="inlineStr">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>6c795804-1dc3-4d2b-9684-d1a0fd2303f5</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>Exceeds Withdrawal Amount Limit</t>
         </is>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>62</v>
-      </c>
-      <c r="B54" t="inlineStr">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>70057504-a29a-4fbc-a7c7-b0fc81cfdece</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>Restricted Card</t>
         </is>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>63</v>
-      </c>
-      <c r="B55" t="inlineStr">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>8afc376a-23b6-4080-931d-a263dfed51ed</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>Security Violation, Cryptographic Error</t>
         </is>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>64</v>
-      </c>
-      <c r="B56" t="inlineStr">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>891ef709-7c35-44c1-9f79-7fb55d287942</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>Original Amount Incorrect</t>
         </is>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>65</v>
-      </c>
-      <c r="B57" t="inlineStr">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>32c6ba49-999d-49c6-b7b8-6e1030d5fcec</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>Exceeds Withdrawal Counter Limit</t>
         </is>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>66</v>
-      </c>
-      <c r="B58" t="inlineStr">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>01fe1a06-779b-4f3b-a3d1-75006ab59a70</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>Card Acceptor Contact Security Department</t>
         </is>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>67</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>442140d8-eec8-44ba-9911-a2706d3004c9</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>Hard Capture</t>
         </is>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>68</v>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>e35d9a82-29d7-4617-b99f-262f83ac8ad2</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>Response too late</t>
         </is>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>69</v>
-      </c>
-      <c r="B61" t="inlineStr">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>7ada02b0-903d-48fb-aa3a-010c7f2d0af2</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>Security Module Failure / Key Data Elements Not Found</t>
         </is>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>70</v>
-      </c>
-      <c r="B62" t="inlineStr">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>7ba55a72-c2b6-42ed-bf74-43913e7e6fc2</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CVC2 Error</t>
         </is>
       </c>
-      <c r="C62" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>71</v>
-      </c>
-      <c r="B63" t="inlineStr">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>831dfe99-a85f-49ac-af35-a7c9d7b445cf</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>Message Out Of Cycle Sequence</t>
         </is>
       </c>
-      <c r="C63" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>72</v>
-      </c>
-      <c r="B64" t="inlineStr">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>d304c99d-2feb-4442-9877-0d670dbb2871</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>ATC Check Failure</t>
         </is>
       </c>
-      <c r="C64" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>73</v>
-      </c>
-      <c r="B65" t="inlineStr">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>217c6d8d-a5b5-43b1-8935-f4fa75a275c6</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CVR decline</t>
         </is>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>74</v>
-      </c>
-      <c r="B66" t="inlineStr">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>7e71fc28-2b10-4823-aa66-9a6569971ff4</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>TVR decline</t>
         </is>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>75</v>
-      </c>
-      <c r="B67" t="inlineStr">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>c1e56734-a787-4a8f-b9b7-dd3f470e2d9c</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>Allowable PIN Tries exceeded</t>
         </is>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>76</v>
-      </c>
-      <c r="B68" t="inlineStr">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>b6eab68e-5f7f-4a81-a49b-06ab4fb12275</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>Invalid Account</t>
         </is>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>77</v>
-      </c>
-      <c r="B69" t="inlineStr">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>0c5a0d88-5779-4354-a85a-04875bc7dc2e</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>The Original Message Found for reversal but reversal data not consistent</t>
         </is>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>78</v>
-      </c>
-      <c r="B70" t="inlineStr">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1d3a0b29-cfcf-4c76-85a2-8a274c09546d</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>Invalid Account ( From / To )</t>
         </is>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>79</v>
-      </c>
-      <c r="B71" t="inlineStr">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>554da377-7a2f-49d9-b560-9ed0ae01d174</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>Key Exchange Failed</t>
         </is>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>80</v>
-      </c>
-      <c r="B72" t="inlineStr">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2b2c905a-b9f3-4e62-929c-3fef485a86c2</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>Invalid Date</t>
         </is>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>81</v>
-      </c>
-      <c r="B73" t="inlineStr">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>9bb7dc7a-1a18-4c0f-bcb6-07f9a7f9f532</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>PIN Cryptographic error found</t>
         </is>
       </c>
-      <c r="C73" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>82</v>
-      </c>
-      <c r="B74" t="inlineStr">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>6e1237af-e583-4c9f-9e40-990c10b96d90</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>Invalid CVV</t>
         </is>
       </c>
-      <c r="C74" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>83</v>
-      </c>
-      <c r="B75" t="inlineStr">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4f62baa9-2f6c-4752-8e47-9649610cb7c2</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>Unable to verify PIN</t>
         </is>
       </c>
-      <c r="C75" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>84</v>
-      </c>
-      <c r="B76" t="inlineStr">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>01521882-2756-441e-b4b1-159b51566a6a</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>Invalid Authorisation life cycle</t>
         </is>
       </c>
-      <c r="C76" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>85</v>
-      </c>
-      <c r="B77" t="inlineStr">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>0c3b5d60-fe5d-4656-9258-a2b3fdeeb9a6</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>No reason for decline ( authorised !!)</t>
         </is>
       </c>
-      <c r="C77" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>86</v>
-      </c>
-      <c r="B78" t="inlineStr">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>7f91225c-807e-47ce-bb5f-eabcc70f6aa4</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>Invalid Operation / File Update</t>
         </is>
       </c>
-      <c r="C78" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>87</v>
-      </c>
-      <c r="B79" t="inlineStr">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20c53023-0db0-484f-97f9-b5c0a17ef751</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>Request Cryptogram Failure</t>
         </is>
       </c>
-      <c r="C79" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>88</v>
-      </c>
-      <c r="B80" t="inlineStr">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>625e663a-c59c-4fb4-9dce-8563e866b3cb</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>Fallback Decline</t>
         </is>
       </c>
-      <c r="C80" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>89</v>
-      </c>
-      <c r="B81" t="inlineStr">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>acea6c61-2aae-452a-ae0b-614899ab454b</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>Card Authentication Failed</t>
         </is>
       </c>
-      <c r="C81" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>90</v>
-      </c>
-      <c r="B82" t="inlineStr">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>51063610-0f86-44bb-83bf-feed9750b0e5</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>Inactive Card</t>
         </is>
       </c>
-      <c r="C82" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>91</v>
-      </c>
-      <c r="B83" t="inlineStr">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>fa157ebc-a499-428a-9f70-be7647be25f1</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>Issuer Or Switch Inoperative</t>
         </is>
       </c>
-      <c r="C83" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>92</v>
-      </c>
-      <c r="B84" t="inlineStr">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>35bcc7f4-2181-4c24-9733-c3a30688418a</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>Financial Routing Can not be found</t>
         </is>
       </c>
-      <c r="C84" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>93</v>
-      </c>
-      <c r="B85" t="inlineStr">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1b261983-2029-4db4-9762-1c0f5496661c</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>Transaction Can not be identified. Law violation.</t>
         </is>
       </c>
-      <c r="C85" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>94</v>
-      </c>
-      <c r="B86" t="inlineStr">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4c28a2e2-3a50-4bf1-9ba9-09ff467e056e</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>Duplicate transaction.</t>
         </is>
       </c>
-      <c r="C86" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>96</v>
-      </c>
-      <c r="B87" t="inlineStr">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>a4b57862-7421-487f-8f57-5b39866a881e</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>System Malfunction</t>
         </is>
       </c>
-      <c r="C87" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>97</v>
-      </c>
-      <c r="B88" t="inlineStr">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>eef02f1a-b8a9-4321-8814-dd6b9b6d437e</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>End Global Monitoring Temporization</t>
         </is>
       </c>
-      <c r="C88" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>98</v>
-      </c>
-      <c r="B89" t="inlineStr">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>f719796c-00da-4ea5-a77f-2f27fce535dd</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>Server Unavailable, Network Switch requested or MAC Problem</t>
         </is>
       </c>
-      <c r="C89" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>99</v>
-      </c>
-      <c r="B90" t="inlineStr">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>6a5d20f2-29cf-4683-962c-bb33790df5da</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>Requester System Incident</t>
         </is>
       </c>
-      <c r="C90" s="2" t="n">
-        <v>45511.29381017361</v>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/AUTHORIZATION_RESPONSE_F039/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>45511.29381017474</v>
       </c>
     </row>
   </sheetData>
